--- a/compression_matrices/Template.xlsx
+++ b/compression_matrices/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/leeat/liorben/Combplex/runs/CombPlex_official_git/compression_matrices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/leeat/Collaboration/CombPlex/runs_Lior/CombPlex_dev2/compression_matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291BB19-3222-AD45-ACA4-9D50913AFEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93DDE76-5B4B-9941-AD23-338590C7A765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -275,32 +275,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -308,21 +293,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -332,11 +305,20 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -647,289 +629,289 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
